--- a/data/rawInterlabData.xlsx
+++ b/data/rawInterlabData.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\InterLabCompare\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933BB506-202F-4026-BF40-674119097DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="28680" yWindow="-7320" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -88,29 +97,36 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -118,7 +134,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -127,40 +143,37 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
-    <border/>
+  <borders count="14">
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -172,6 +185,10 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -180,9 +197,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -191,8 +210,25 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -202,83 +238,139 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -468,25 +560,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="30.25"/>
-    <col customWidth="1" min="3" max="3" width="35.5"/>
-    <col customWidth="1" min="4" max="4" width="32.75"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,12 +597,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4">
-        <v>-9.37</v>
+        <v>-9.3699999999999992</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
@@ -514,7 +611,7 @@
         <v>-0.69</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -528,7 +625,7 @@
         <v>-7.27</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -542,7 +639,7 @@
         <v>-3.43</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -553,10 +650,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="6">
-        <v>-1.15</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>-1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -570,7 +667,7 @@
         <v>-5.38</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -584,7 +681,7 @@
         <v>-3.79</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -598,7 +695,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -612,7 +709,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -623,10 +720,10 @@
         <v>5</v>
       </c>
       <c r="D10" s="6">
-        <v>-8.05</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>-8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -640,7 +737,7 @@
         <v>-7.05</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
@@ -654,7 +751,7 @@
         <v>-1.59</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -668,7 +765,7 @@
         <v>-7.84</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
@@ -682,7 +779,7 @@
         <v>-4.08</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -696,7 +793,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
@@ -710,7 +807,7 @@
         <v>-6.11</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
@@ -721,10 +818,10 @@
         <v>15</v>
       </c>
       <c r="D17" s="9">
-        <v>-4.44</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>-4.4400000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>11</v>
       </c>
@@ -738,7 +835,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
@@ -752,7 +849,7 @@
         <v>-0.79</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -763,10 +860,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="9">
-        <v>-8.55</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>-8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
@@ -777,10 +874,10 @@
         <v>15</v>
       </c>
       <c r="D21" s="10">
-        <v>-8.3</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>-8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -794,7 +891,7 @@
         <v>-0.88</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -808,21 +905,21 @@
         <v>-7.06</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="9">
-        <v>-8.28</v>
+        <v>-8.2799999999999994</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="9">
-        <v>-2.47</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>-2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -836,7 +933,7 @@
         <v>-1.71</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>9</v>
       </c>
@@ -850,7 +947,7 @@
         <v>-5.57</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>10</v>
       </c>
@@ -864,7 +961,7 @@
         <v>-3.75</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>11</v>
       </c>
@@ -878,12 +975,12 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="9">
-        <v>-9.53</v>
+        <v>-9.5299999999999994</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>16</v>
@@ -892,7 +989,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>13</v>
       </c>
@@ -906,7 +1003,7 @@
         <v>-6.86</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>14</v>
       </c>
@@ -920,7 +1017,7 @@
         <v>-6.28</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
@@ -934,7 +1031,7 @@
         <v>-1.37</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
@@ -948,7 +1045,7 @@
         <v>-7.23</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>7</v>
       </c>
@@ -962,7 +1059,7 @@
         <v>-3.16</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
@@ -976,7 +1073,7 @@
         <v>-1.82</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>9</v>
       </c>
@@ -990,7 +1087,7 @@
         <v>-6.28</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
@@ -1004,7 +1101,7 @@
         <v>-3.77</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>11</v>
       </c>
@@ -1018,12 +1115,12 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="9">
-        <v>-9.38</v>
+        <v>-9.3800000000000008</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>17</v>
@@ -1032,7 +1129,7 @@
         <v>-0.35</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>13</v>
       </c>
@@ -1046,7 +1143,7 @@
         <v>-8.14</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>14</v>
       </c>
@@ -1060,7 +1157,7 @@
         <v>-6.92</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>4</v>
       </c>
@@ -1074,7 +1171,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>6</v>
       </c>
@@ -1088,7 +1185,7 @@
         <v>-5.62</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>7</v>
       </c>
@@ -1102,7 +1199,7 @@
         <v>-1.86</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1113,10 +1210,10 @@
         <v>18</v>
       </c>
       <c r="D45" s="9">
-        <v>-1.12</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>-1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>9</v>
       </c>
@@ -1130,7 +1227,7 @@
         <v>-5.73</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>10</v>
       </c>
@@ -1144,7 +1241,7 @@
         <v>-2.85</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>11</v>
       </c>
@@ -1158,7 +1255,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>12</v>
       </c>
@@ -1172,7 +1269,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>13</v>
       </c>
@@ -1186,7 +1283,7 @@
         <v>-6.91</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>14</v>
       </c>
@@ -1200,7 +1297,7 @@
         <v>-4.63</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>4</v>
       </c>
@@ -1214,7 +1311,7 @@
         <v>-0.16</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>6</v>
       </c>
@@ -1228,12 +1325,12 @@
         <v>-6.7</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B54" s="6">
-        <v>-8.79</v>
+        <v>-8.7899999999999991</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>19</v>
@@ -1242,7 +1339,7 @@
         <v>-2.58</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>8</v>
       </c>
@@ -1256,7 +1353,7 @@
         <v>-0.54</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>9</v>
       </c>
@@ -1270,7 +1367,7 @@
         <v>-5.04</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>10</v>
       </c>
@@ -1284,7 +1381,7 @@
         <v>-3.49</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>11</v>
       </c>
@@ -1298,7 +1395,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>12</v>
       </c>
@@ -1312,7 +1409,7 @@
         <v>-0.31</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>13</v>
       </c>
@@ -1326,7 +1423,7 @@
         <v>-7.76</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>14</v>
       </c>
@@ -1340,7 +1437,7 @@
         <v>-7.42</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>4</v>
       </c>
@@ -1354,7 +1451,7 @@
         <v>-0.99</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>6</v>
       </c>
@@ -1368,7 +1465,7 @@
         <v>-7.42</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>7</v>
       </c>
@@ -1382,7 +1479,7 @@
         <v>-3.19</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>8</v>
       </c>
@@ -1396,7 +1493,7 @@
         <v>-1.04</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>9</v>
       </c>
@@ -1410,7 +1507,7 @@
         <v>-5.32</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>10</v>
       </c>
@@ -1424,7 +1521,7 @@
         <v>-3.83</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>11</v>
       </c>
@@ -1438,7 +1535,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>12</v>
       </c>
@@ -1452,7 +1549,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>13</v>
       </c>
@@ -1466,7 +1563,7 @@
         <v>-8.27</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>14</v>
       </c>
@@ -1480,12 +1577,12 @@
         <v>-8.06</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B72" s="8">
-        <v>-9.12</v>
+        <v>-9.1199999999999992</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>21</v>
@@ -1494,7 +1591,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>6</v>
       </c>
@@ -1508,7 +1605,7 @@
         <v>-5.77</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>7</v>
       </c>
@@ -1522,7 +1619,7 @@
         <v>-1.06</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>8</v>
       </c>
@@ -1536,7 +1633,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>9</v>
       </c>
@@ -1547,10 +1644,10 @@
         <v>21</v>
       </c>
       <c r="D76" s="9">
-        <v>-4.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>10</v>
       </c>
@@ -1564,7 +1661,7 @@
         <v>-1.89</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>11</v>
       </c>
@@ -1578,7 +1675,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>12</v>
       </c>
@@ -1592,7 +1689,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>13</v>
       </c>
@@ -1606,7 +1703,7 @@
         <v>-6.15</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>14</v>
       </c>
@@ -1620,7 +1717,7 @@
         <v>-5.89</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>4</v>
       </c>
@@ -1630,11 +1727,11 @@
       <c r="C82" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D82" s="9">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="83">
+      <c r="D82" s="12">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>6</v>
       </c>
@@ -1644,11 +1741,11 @@
       <c r="C83" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D83" s="9">
-        <v>-5.77</v>
-      </c>
-    </row>
-    <row r="84">
+      <c r="D83" s="13">
+        <v>-5.27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>7</v>
       </c>
@@ -1658,11 +1755,11 @@
       <c r="C84" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D84" s="9">
-        <v>-1.06</v>
-      </c>
-    </row>
-    <row r="85">
+      <c r="D84" s="13">
+        <v>-2.36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>8</v>
       </c>
@@ -1672,11 +1769,11 @@
       <c r="C85" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D85" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="86">
+      <c r="D85" s="13">
+        <v>-1.22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>9</v>
       </c>
@@ -1686,11 +1783,11 @@
       <c r="C86" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="9">
-        <v>-4.0</v>
-      </c>
-    </row>
-    <row r="87">
+      <c r="D86" s="13">
+        <v>-4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>10</v>
       </c>
@@ -1700,11 +1797,11 @@
       <c r="C87" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D87" s="9">
-        <v>-1.89</v>
-      </c>
-    </row>
-    <row r="88">
+      <c r="D87" s="13">
+        <v>-2.68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>11</v>
       </c>
@@ -1714,11 +1811,11 @@
       <c r="C88" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D88" s="9">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="89">
+      <c r="D88" s="13">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>12</v>
       </c>
@@ -1728,11 +1825,11 @@
       <c r="C89" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D89" s="9">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="90">
+      <c r="D89" s="13">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>13</v>
       </c>
@@ -1742,11 +1839,11 @@
       <c r="C90" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="9">
-        <v>-6.15</v>
-      </c>
-    </row>
-    <row r="91">
+      <c r="D90" s="13">
+        <v>-6.22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>14</v>
       </c>
@@ -1756,11 +1853,11 @@
       <c r="C91" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D91" s="10">
-        <v>-5.89</v>
-      </c>
-    </row>
-    <row r="92">
+      <c r="D91" s="14">
+        <v>-6.67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>4</v>
       </c>
@@ -1774,7 +1871,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>6</v>
       </c>
@@ -1788,7 +1885,7 @@
         <v>-4.2</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>7</v>
       </c>
@@ -1799,10 +1896,10 @@
         <v>23</v>
       </c>
       <c r="D94" s="9">
-        <v>-0.58</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>-0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>8</v>
       </c>
@@ -1816,7 +1913,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>9</v>
       </c>
@@ -1830,7 +1927,7 @@
         <v>-3.17</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>10</v>
       </c>
@@ -1844,7 +1941,7 @@
         <v>-1.17</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>11</v>
       </c>
@@ -1855,10 +1952,10 @@
         <v>23</v>
       </c>
       <c r="D98" s="9">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>12</v>
       </c>
@@ -1869,10 +1966,10 @@
         <v>23</v>
       </c>
       <c r="D99" s="9">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>13</v>
       </c>
@@ -1886,7 +1983,7 @@
         <v>-6.9</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>14</v>
       </c>
@@ -1901,6 +1998,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/rawInterlabData.xlsx
+++ b/data/rawInterlabData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\InterLabCompare\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933BB506-202F-4026-BF40-674119097DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBA2D04-BEEC-4BC4-8FF9-42096EB9AB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7320" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="33">
   <si>
     <t>sample</t>
   </si>
@@ -92,13 +92,40 @@
   </si>
   <si>
     <t>dpaa_treated_50</t>
+  </si>
+  <si>
+    <t>FE01</t>
+  </si>
+  <si>
+    <t>FE02</t>
+  </si>
+  <si>
+    <t>FE03</t>
+  </si>
+  <si>
+    <t>FE04</t>
+  </si>
+  <si>
+    <t>FE05</t>
+  </si>
+  <si>
+    <t>FE06</t>
+  </si>
+  <si>
+    <t>FE07</t>
+  </si>
+  <si>
+    <t>FE08</t>
+  </si>
+  <si>
+    <t>utah_untreated_30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -127,6 +154,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -570,10 +603,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103:C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1997,7 +2030,149 @@
         <v>-3.84</v>
       </c>
     </row>
+    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102">
+        <v>-14.549566</v>
+      </c>
+      <c r="C102" t="s">
+        <v>32</v>
+      </c>
+      <c r="D102">
+        <v>-8.5316145999999993</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>24</v>
+      </c>
+      <c r="B103">
+        <v>-9.3290600000000001</v>
+      </c>
+      <c r="C103" t="s">
+        <v>32</v>
+      </c>
+      <c r="D103">
+        <v>-1.033345</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>25</v>
+      </c>
+      <c r="B104">
+        <v>-15.508796999999999</v>
+      </c>
+      <c r="C104" t="s">
+        <v>32</v>
+      </c>
+      <c r="D104">
+        <v>-7.5520424999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>26</v>
+      </c>
+      <c r="B105">
+        <v>-8.2918199999999995</v>
+      </c>
+      <c r="C105" t="s">
+        <v>32</v>
+      </c>
+      <c r="D105">
+        <v>-3.8960571000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>27</v>
+      </c>
+      <c r="B106">
+        <v>-10.58713</v>
+      </c>
+      <c r="C106" t="s">
+        <v>32</v>
+      </c>
+      <c r="D106">
+        <v>-1.5984670999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>28</v>
+      </c>
+      <c r="B107">
+        <v>-15.971700999999999</v>
+      </c>
+      <c r="C107" t="s">
+        <v>32</v>
+      </c>
+      <c r="D107">
+        <v>-5.6693895999999997</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>29</v>
+      </c>
+      <c r="B108">
+        <v>-13.74333</v>
+      </c>
+      <c r="C108" t="s">
+        <v>32</v>
+      </c>
+      <c r="D108">
+        <v>-4.2283524999999997</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>30</v>
+      </c>
+      <c r="B109">
+        <v>-10.55585</v>
+      </c>
+      <c r="C109" t="s">
+        <v>32</v>
+      </c>
+      <c r="D109">
+        <v>0.5360066</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>31</v>
+      </c>
+      <c r="B110">
+        <v>-9.4439240000000009</v>
+      </c>
+      <c r="C110" t="s">
+        <v>32</v>
+      </c>
+      <c r="D110">
+        <v>-0.81820850000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111">
+        <v>-15.208564000000001</v>
+      </c>
+      <c r="C111" t="s">
+        <v>32</v>
+      </c>
+      <c r="D111">
+        <v>-8.2727003000000003</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>